--- a/01_vector_stores_export.xlsx
+++ b/01_vector_stores_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coding is fun.</t>
+          <t>Pasta is italian.</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Roses are red.</t>
+          <t>Coding is fun.</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Violets are blue.</t>
+          <t>Roses are red.</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Water is essential for life.</t>
+          <t>Violets are blue.</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,92 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Water is essential for life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>The moon orbits the Earth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Math is the language of life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>This is a text that will be in a matrix.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Maine Coon is a breed of cat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Texto en castellano</t>
         </is>
       </c>
     </row>
